--- a/branches/program-monitoring-changes/CodeSystem-cs-vl-causeofdeath.xlsx
+++ b/branches/program-monitoring-changes/CodeSystem-cs-vl-causeofdeath.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T12:02:49+00:00</t>
+    <t>2022-09-19T11:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
